--- a/EECIP/App_Data/AgencyImport.xlsx
+++ b/EECIP/App_Data/AgencyImport.xlsx
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,8 +1487,8 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="str">
-        <f>CONCATENATE("insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('",A4,"','", B4,"','",C4, "',", D4,",1)")</f>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Alabama Department of Environmental Management','ADEM','AL',4,1)</v>
+        <f>CONCATENATE("insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('",A4,"','", B4,"', 'State','",C4, "',", D4,",1)")</f>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Alabama Department of Environmental Management','ADEM', 'State','AL',4,1)</v>
       </c>
       <c r="I4" t="str">
         <f>CONCATENATE("INSERT INTO T_OE_ORGANIZATION_EMAIL_RULE (ORG_IDX,  EMAIL_STRING) select ORG_IDX, '", E4, "' from T_OE_ORGANIZATION where ORG_NAME = '", A4, "';")</f>
@@ -1513,8 +1513,8 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="4" t="str">
-        <f t="shared" ref="G5:G68" si="0">CONCATENATE("insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('",A5,"','", B5,"','",C5, "',", D5,",1)")</f>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Alabama Department of Conservation and Natural Resources','ADCNR','AL',4,1)</v>
+        <f t="shared" ref="G5:G68" si="0">CONCATENATE("insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('",A5,"','", B5,"', 'State','",C5, "',", D5,",1)")</f>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Alabama Department of Conservation and Natural Resources','ADCNR', 'State','AL',4,1)</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" ref="I5:I68" si="1">CONCATENATE("INSERT INTO T_OE_ORGANIZATION_EMAIL_RULE (ORG_IDX,  EMAIL_STRING) select ORG_IDX, '", E5, "' from T_OE_ORGANIZATION where ORG_NAME = '", A5, "';")</f>
@@ -1538,7 +1538,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Alabama Department of Public Health','ADPH','AL',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Alabama Department of Public Health','ADPH', 'State','AL',4,1)</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1564,7 +1564,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Alaska Department of Environmental Conservation','ADEC','AK',10,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Alaska Department of Environmental Conservation','ADEC', 'State','AK',10,1)</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1590,7 +1590,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Alaska Department of Health and Social Services ','ADHSS','AK',10,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Alaska Department of Health and Social Services ','ADHSS', 'State','AK',10,1)</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1616,7 +1616,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Arizona Department of Environmental Quality','AZDEQ','AZ',9,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Arizona Department of Environmental Quality','AZDEQ', 'State','AZ',9,1)</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1642,7 +1642,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Arizona Department of Health Services','AZDHS','AZ',9,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Arizona Department of Health Services','AZDHS', 'State','AZ',9,1)</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1668,7 +1668,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Arkansas Department of Environmental Quality','ARDEQ','AR',6,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Arkansas Department of Environmental Quality','ARDEQ', 'State','AR',6,1)</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1692,7 +1692,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Arkansas Department of Health','ARDOH','AR',6,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Arkansas Department of Health','ARDOH', 'State','AR',6,1)</v>
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1718,7 +1718,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('American Samoa Environmental Protection Agency','ASEPA','AS',9,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('American Samoa Environmental Protection Agency','ASEPA', 'State','AS',9,1)</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1744,7 +1744,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('California Environmental Protection Agency','CALEPA','CA',9,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('California Environmental Protection Agency','CALEPA', 'State','CA',9,1)</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1768,7 +1768,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('California Department of Conservation','CALDEC','CA',9,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('California Department of Conservation','CALDEC', 'State','CA',9,1)</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1792,7 +1792,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('California Department of Health Services','CALDHS','CA',9,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('California Department of Health Services','CALDHS', 'State','CA',9,1)</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1818,7 +1818,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Colorado Department of Public Health and Environment ','CDPHE','CO',8,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Colorado Department of Public Health and Environment ','CDPHE', 'State','CO',8,1)</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1844,7 +1844,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Connecticut Department of Energy and Environmental Protection','CTDEEP','CT',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Connecticut Department of Energy and Environmental Protection','CTDEEP', 'State','CT',1,1)</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1870,7 +1870,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Connecticut Department of Puclic Health','CTDPH','CT',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Connecticut Department of Puclic Health','CTDPH', 'State','CT',1,1)</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1896,7 +1896,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Delaware Dept. of Natural Resources and Environmental Control','DNREC','DE',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Delaware Dept. of Natural Resources and Environmental Control','DNREC', 'State','DE',3,1)</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1922,7 +1922,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Delaware Department of Health and Social Services','DHSS','DE',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Delaware Department of Health and Social Services','DHSS', 'State','DE',3,1)</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1948,7 +1948,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('DC Department of Energy and Environment','DOEE','DC',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('DC Department of Energy and Environment','DOEE', 'State','DC',3,1)</v>
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1974,7 +1974,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('District of Columbia Department of Health','DCDOH','DC',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('District of Columbia Department of Health','DCDOH', 'State','DC',3,1)</v>
       </c>
       <c r="I23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2000,7 +2000,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Florida Department of Environmental Protection','FLDEP','FL',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Florida Department of Environmental Protection','FLDEP', 'State','FL',4,1)</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2024,7 +2024,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Florida Department of Health','FLDOH','FL',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Florida Department of Health','FLDOH', 'State','FL',4,1)</v>
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2050,7 +2050,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Georgia Department of Natural Resources','GDNR','GA',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Georgia Department of Natural Resources','GDNR', 'State','GA',4,1)</v>
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2074,7 +2074,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Georgia Division of Public Health','GDPH','GA',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Georgia Division of Public Health','GDPH', 'State','GA',4,1)</v>
       </c>
       <c r="I27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2100,7 +2100,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Guam Environmental Protection Agency','GEPA','GU',9,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Guam Environmental Protection Agency','GEPA', 'State','GU',9,1)</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2124,7 +2124,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Hawaii Department of Land and Natural Resources','DLNR','HI',9,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Hawaii Department of Land and Natural Resources','DLNR', 'State','HI',9,1)</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2150,7 +2150,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Hawaii Department of Health','HDOH','HI',9,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Hawaii Department of Health','HDOH', 'State','HI',9,1)</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2176,7 +2176,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Idaho Department of Environmental Quality','IDEQ','ID',10,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Idaho Department of Environmental Quality','IDEQ', 'State','ID',10,1)</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2202,7 +2202,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Idaho Department of Water Resources','IDWR','ID',10,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Idaho Department of Water Resources','IDWR', 'State','ID',10,1)</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2226,7 +2226,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Idaho Department of Health and Welfare','IDHW','ID',10,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Idaho Department of Health and Welfare','IDHW', 'State','ID',10,1)</v>
       </c>
       <c r="I33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2252,7 +2252,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Illinois Environmental Protection Agency','IEPA','IL',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Illinois Environmental Protection Agency','IEPA', 'State','IL',5,1)</v>
       </c>
       <c r="I34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2278,7 +2278,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Illinois Department of Natural Resources','IDNR','IL',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Illinois Department of Natural Resources','IDNR', 'State','IL',5,1)</v>
       </c>
       <c r="I35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2302,7 +2302,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Illinois Department of Public Health','IDPH','IL',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Illinois Department of Public Health','IDPH', 'State','IL',5,1)</v>
       </c>
       <c r="I36" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2328,7 +2328,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Indiana Department of Environmental Management','IDEM','IN',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Indiana Department of Environmental Management','IDEM', 'State','IN',5,1)</v>
       </c>
       <c r="I37" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2352,7 +2352,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Indiana Department of Natural Resources','INDNR','IN',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Indiana Department of Natural Resources','INDNR', 'State','IN',5,1)</v>
       </c>
       <c r="I38" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2376,7 +2376,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Indiana State Department of Health','ISDH','IN',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Indiana State Department of Health','ISDH', 'State','IN',5,1)</v>
       </c>
       <c r="I39" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2402,7 +2402,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Iowa Department of Natural Resources','Iowa DNR','IA',7,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Iowa Department of Natural Resources','Iowa DNR', 'State','IA',7,1)</v>
       </c>
       <c r="I40" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2428,7 +2428,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Kansas Department of Health and Environment','KDHE','KS',7,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Kansas Department of Health and Environment','KDHE', 'State','KS',7,1)</v>
       </c>
       <c r="I41" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2454,7 +2454,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Kentucky Department for Natural Resources','KDNR','KY',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Kentucky Department for Natural Resources','KDNR', 'State','KY',4,1)</v>
       </c>
       <c r="I42" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2480,7 +2480,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Kentucky Department for Environmental Protection','KDEP','KY',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Kentucky Department for Environmental Protection','KDEP', 'State','KY',4,1)</v>
       </c>
       <c r="I43" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2506,7 +2506,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Kentucky Department for Public Health','KDPH','KY',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Kentucky Department for Public Health','KDPH', 'State','KY',4,1)</v>
       </c>
       <c r="I44" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2532,7 +2532,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Louisiana Department of Environmental Quality','LDEQ','LA',6,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Louisiana Department of Environmental Quality','LDEQ', 'State','LA',6,1)</v>
       </c>
       <c r="I45" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2558,7 +2558,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Louisiana Department Health and Hospitals, Office of Public Health','LDHH','LA',6,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Louisiana Department Health and Hospitals, Office of Public Health','LDHH', 'State','LA',6,1)</v>
       </c>
       <c r="I46" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2584,7 +2584,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Maine Department of Environmental Protection','Maine DEP','ME',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Maine Department of Environmental Protection','Maine DEP', 'State','ME',1,1)</v>
       </c>
       <c r="I47" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2610,7 +2610,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Maine Department of Health and Human Services','Maine DHHS','ME',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Maine Department of Health and Human Services','Maine DHHS', 'State','ME',1,1)</v>
       </c>
       <c r="I48" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2636,7 +2636,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Maryland Department of the Environment','MDE','MD',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Maryland Department of the Environment','MDE', 'State','MD',3,1)</v>
       </c>
       <c r="I49" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2662,7 +2662,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Maryland Department of Natural Resources','Maryland DNR','MD',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Maryland Department of Natural Resources','Maryland DNR', 'State','MD',3,1)</v>
       </c>
       <c r="I50" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2688,7 +2688,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Maryland Department of Health and Mental Hygiene','MDH','MD',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Maryland Department of Health and Mental Hygiene','MDH', 'State','MD',3,1)</v>
       </c>
       <c r="I51" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Massachusetts Department of Environmental Protection','MassDEP','MA',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Massachusetts Department of Environmental Protection','MassDEP', 'State','MA',1,1)</v>
       </c>
       <c r="I52" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Massachusetts Department of Public Health','MassDPH','MA',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Massachusetts Department of Public Health','MassDPH', 'State','MA',1,1)</v>
       </c>
       <c r="I53" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2778,7 +2778,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Michigan Department of Environmental Quality','Michigan DEQ','MI',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Michigan Department of Environmental Quality','Michigan DEQ', 'State','MI',5,1)</v>
       </c>
       <c r="I54" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2804,7 +2804,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Michigan Department of Public Health','MDHHS','MI',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Michigan Department of Public Health','MDHHS', 'State','MI',5,1)</v>
       </c>
       <c r="I55" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2830,7 +2830,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Minnesota Department of Natural Resources','MDNR','MN',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Minnesota Department of Natural Resources','MDNR', 'State','MN',5,1)</v>
       </c>
       <c r="I56" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2856,7 +2856,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Minnesota Pollution Control Agency','MPCA','MN',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Minnesota Pollution Control Agency','MPCA', 'State','MN',5,1)</v>
       </c>
       <c r="I57" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2882,7 +2882,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Minnesota Department of Health','MDH','MN',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Minnesota Department of Health','MDH', 'State','MN',5,1)</v>
       </c>
       <c r="I58" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2908,7 +2908,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Mississippi Department of Environmental Quality','Mississippi DEQ','MS',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Mississippi Department of Environmental Quality','Mississippi DEQ', 'State','MS',4,1)</v>
       </c>
       <c r="I59" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2932,7 +2932,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Mississippi Department of Health','MSDOH','MS',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Mississippi Department of Health','MSDOH', 'State','MS',4,1)</v>
       </c>
       <c r="I60" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2958,7 +2958,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Missouri Department of Natural Resources','Missouri DNR','MO',7,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Missouri Department of Natural Resources','Missouri DNR', 'State','MO',7,1)</v>
       </c>
       <c r="I61" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2982,7 +2982,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Missouri Department of Conservation','Missouri DC','MO',7,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Missouri Department of Conservation','Missouri DC', 'State','MO',7,1)</v>
       </c>
       <c r="I62" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3006,7 +3006,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Missouri Department of Health','Missouri DOH','MO',7,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Missouri Department of Health','Missouri DOH', 'State','MO',7,1)</v>
       </c>
       <c r="I63" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3032,7 +3032,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Montana Department of Environmental Quality','MTDEQ','MT',8,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Montana Department of Environmental Quality','MTDEQ', 'State','MT',8,1)</v>
       </c>
       <c r="I64" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3058,7 +3058,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Montana Department of Health','MTDOH','MT',8,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Montana Department of Health','MTDOH', 'State','MT',8,1)</v>
       </c>
       <c r="I65" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3084,7 +3084,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Nebraska Department of Environmental Quality','Nebraska DEQ','NE',7,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Nebraska Department of Environmental Quality','Nebraska DEQ', 'State','NE',7,1)</v>
       </c>
       <c r="I66" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3110,7 +3110,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Nebraska Department of Health &amp; Human Services','Nebraska DHHS','NE',7,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Nebraska Department of Health &amp; Human Services','Nebraska DHHS', 'State','NE',7,1)</v>
       </c>
       <c r="I67" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3134,7 +3134,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Nevada Department of Conservation and Natural Resources','Nevada DCNR','NV',9,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Nevada Department of Conservation and Natural Resources','Nevada DCNR', 'State','NV',9,1)</v>
       </c>
       <c r="I68" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3159,11 +3159,11 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="4" t="str">
-        <f t="shared" ref="G69:G115" si="2">CONCATENATE("insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('",A69,"','", B69,"','",C69, "',", D69,",1)")</f>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Nevada Division of Environmental Protection','Nevada DEP','NV',9,1)</v>
+        <f t="shared" ref="G69:G115" si="2">CONCATENATE("insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('",A69,"','", B69,"', 'State','",C69, "',", D69,",1)")</f>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Nevada Division of Environmental Protection','Nevada DEP', 'State','NV',9,1)</v>
       </c>
       <c r="I69" s="4" t="str">
-        <f t="shared" ref="I69:J115" si="3">CONCATENATE("INSERT INTO T_OE_ORGANIZATION_EMAIL_RULE (ORG_IDX,  EMAIL_STRING) select ORG_IDX, '", E69, "' from T_OE_ORGANIZATION where ORG_NAME = '", A69, "';")</f>
+        <f t="shared" ref="I69:I115" si="3">CONCATENATE("INSERT INTO T_OE_ORGANIZATION_EMAIL_RULE (ORG_IDX,  EMAIL_STRING) select ORG_IDX, '", E69, "' from T_OE_ORGANIZATION where ORG_NAME = '", A69, "';")</f>
         <v>INSERT INTO T_OE_ORGANIZATION_EMAIL_RULE (ORG_IDX,  EMAIL_STRING) select ORG_IDX, 'ndep.nv.gov' from T_OE_ORGANIZATION where ORG_NAME = 'Nevada Division of Environmental Protection';</v>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('New Hampshire Department of Environmental Services','NHDES','NH',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('New Hampshire Department of Environmental Services','NHDES', 'State','NH',1,1)</v>
       </c>
       <c r="I70" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3210,7 +3210,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('New Hampshire Department of Health and Human Services','NH DHHS','NH',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('New Hampshire Department of Health and Human Services','NH DHHS', 'State','NH',1,1)</v>
       </c>
       <c r="I71" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3236,7 +3236,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('New Hampshire Department of Information Technology','New Hampshire DOIT','NH',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('New Hampshire Department of Information Technology','New Hampshire DOIT', 'State','NH',1,1)</v>
       </c>
       <c r="I72" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('New Jersey Department of Environmental Protection','NJDEP','NJ',2,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('New Jersey Department of Environmental Protection','NJDEP', 'State','NJ',2,1)</v>
       </c>
       <c r="I73" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3292,7 +3292,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('New Jersey Department of Health and Senior Services','NJDHHS','NJ',2,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('New Jersey Department of Health and Senior Services','NJDHHS', 'State','NJ',2,1)</v>
       </c>
       <c r="I74" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3318,7 +3318,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('New Mexico Environment Department','NM ED','NM',6,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('New Mexico Environment Department','NM ED', 'State','NM',6,1)</v>
       </c>
       <c r="I75" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3344,7 +3344,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('New Mexico Department of Health','NM DOH','NM',6,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('New Mexico Department of Health','NM DOH', 'State','NM',6,1)</v>
       </c>
       <c r="I76" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3370,7 +3370,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('New York State Department of Environmental Conservation','NYSDEC','NY',2,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('New York State Department of Environmental Conservation','NYSDEC', 'State','NY',2,1)</v>
       </c>
       <c r="I77" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3394,7 +3394,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('New York State Department of Health','NYSDOH','NY',2,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('New York State Department of Health','NYSDOH', 'State','NY',2,1)</v>
       </c>
       <c r="I78" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3420,7 +3420,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('North Carolina Department of Environmental Quality','NCDEQ','NC',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('North Carolina Department of Environmental Quality','NCDEQ', 'State','NC',4,1)</v>
       </c>
       <c r="I79" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3446,7 +3446,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('North Dakota Department of Health','ND DOH','ND',8,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('North Dakota Department of Health','ND DOH', 'State','ND',8,1)</v>
       </c>
       <c r="I80" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3472,7 +3472,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Ohio Environmental Protection Agency','OEPA','OH',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Ohio Environmental Protection Agency','OEPA', 'State','OH',5,1)</v>
       </c>
       <c r="I81" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3496,7 +3496,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Ohio Department of Health','ODH','OH',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Ohio Department of Health','ODH', 'State','OH',5,1)</v>
       </c>
       <c r="I82" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3522,7 +3522,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Oklahoma Department of Environmental Quality','OKDEQ','OK',6,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Oklahoma Department of Environmental Quality','OKDEQ', 'State','OK',6,1)</v>
       </c>
       <c r="I83" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3546,7 +3546,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Oklahoma State Department of Health','OSDH','OK',6,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Oklahoma State Department of Health','OSDH', 'State','OK',6,1)</v>
       </c>
       <c r="I84" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3572,7 +3572,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Oregon Department of Environmental Quality ','OR DEQ','OR',10,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Oregon Department of Environmental Quality ','OR DEQ', 'State','OR',10,1)</v>
       </c>
       <c r="I85" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3596,7 +3596,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Oregon Department of Fish and Wildlife','ODFW','OR',10,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Oregon Department of Fish and Wildlife','ODFW', 'State','OR',10,1)</v>
       </c>
       <c r="I86" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3620,7 +3620,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Oregon Department of Human Resources','OR DHS','OR',10,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Oregon Department of Human Resources','OR DHS', 'State','OR',10,1)</v>
       </c>
       <c r="I87" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3646,7 +3646,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Pennsylvania Department of Environmental Protection','Pennsylvania DEP','PA',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Pennsylvania Department of Environmental Protection','Pennsylvania DEP', 'State','PA',3,1)</v>
       </c>
       <c r="I88" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3672,7 +3672,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Pennsylvania Department of Conservation and Natural Resources','PA DCNR','PA',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Pennsylvania Department of Conservation and Natural Resources','PA DCNR', 'State','PA',3,1)</v>
       </c>
       <c r="I89" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3696,7 +3696,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Pennsylvania Department of Health','PA DOH','PA',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Pennsylvania Department of Health','PA DOH', 'State','PA',3,1)</v>
       </c>
       <c r="I90" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3722,7 +3722,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Rhode Island Department of Environmental Management','RIDEM','RI',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Rhode Island Department of Environmental Management','RIDEM', 'State','RI',1,1)</v>
       </c>
       <c r="I91" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3746,7 +3746,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Rhode Island Department of Health','RIDOH','RI',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Rhode Island Department of Health','RIDOH', 'State','RI',1,1)</v>
       </c>
       <c r="I92" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3772,7 +3772,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('South Carolina Department of Health and Environmental Control','SC DHEC','SC',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('South Carolina Department of Health and Environmental Control','SC DHEC', 'State','SC',4,1)</v>
       </c>
       <c r="I93" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3796,7 +3796,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('South Carolina Department of Natural Resources','SC DNR','SC',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('South Carolina Department of Natural Resources','SC DNR', 'State','SC',4,1)</v>
       </c>
       <c r="I94" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3822,7 +3822,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('South Dakota Department of Environment and Natural Resources','SD DENR','SD',8,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('South Dakota Department of Environment and Natural Resources','SD DENR', 'State','SD',8,1)</v>
       </c>
       <c r="I95" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3846,7 +3846,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('South Dakota Department of Health','SD DOH','SD',8,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('South Dakota Department of Health','SD DOH', 'State','SD',8,1)</v>
       </c>
       <c r="I96" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3872,7 +3872,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Tennessee Department of Environment and Conservation','TN DEC','TN',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Tennessee Department of Environment and Conservation','TN DEC', 'State','TN',4,1)</v>
       </c>
       <c r="I97" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3898,7 +3898,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Tennessee Department of Health','TN DOH','TN',4,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Tennessee Department of Health','TN DOH', 'State','TN',4,1)</v>
       </c>
       <c r="I98" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3924,7 +3924,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Texas Commission on Environmental Quality','TCEQ','TX',6,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Texas Commission on Environmental Quality','TCEQ', 'State','TX',6,1)</v>
       </c>
       <c r="I99" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3948,7 +3948,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Texas Department of Health','Texas DOH','TX',6,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Texas Department of Health','Texas DOH', 'State','TX',6,1)</v>
       </c>
       <c r="I100" s="4" t="str">
         <f t="shared" si="3"/>
@@ -3974,7 +3974,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Utah Department of Environmental Quality','Utah DEQ','UT',8,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Utah Department of Environmental Quality','Utah DEQ', 'State','UT',8,1)</v>
       </c>
       <c r="I101" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4000,7 +4000,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Utah Department of Health','UDOH','UT',8,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Utah Department of Health','UDOH', 'State','UT',8,1)</v>
       </c>
       <c r="I102" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Vermont Agency of Natural Resources','VT ANR','VT',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Vermont Agency of Natural Resources','VT ANR', 'State','VT',1,1)</v>
       </c>
       <c r="I103" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="G104" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Vermont Department of Environmental Conservation','VTDEC','VT',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Vermont Department of Environmental Conservation','VTDEC', 'State','VT',1,1)</v>
       </c>
       <c r="I104" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="G105" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Vermont Department of Health','VT DOH','VT',1,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Vermont Department of Health','VT DOH', 'State','VT',1,1)</v>
       </c>
       <c r="I105" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4122,7 +4122,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Virginia Department of Environmental Quality','Virginia DEQ','VA',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Virginia Department of Environmental Quality','Virginia DEQ', 'State','VA',3,1)</v>
       </c>
       <c r="I106" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4148,7 +4148,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Virginia Department of Health','VDH','VA',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Virginia Department of Health','VDH', 'State','VA',3,1)</v>
       </c>
       <c r="I107" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4174,7 +4174,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Washington State Department of Ecology','WA ECY','WA',10,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Washington State Department of Ecology','WA ECY', 'State','WA',10,1)</v>
       </c>
       <c r="I108" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4198,7 +4198,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Washington State Department of Natural Resources','WA DNR','WA',10,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Washington State Department of Natural Resources','WA DNR', 'State','WA',10,1)</v>
       </c>
       <c r="I109" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4222,7 +4222,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Washington State Department of Health','WA DOH','WA',10,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Washington State Department of Health','WA DOH', 'State','WA',10,1)</v>
       </c>
       <c r="I110" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4248,7 +4248,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('West Virginia Department of Environmental Protection','WV DEP','WV',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('West Virginia Department of Environmental Protection','WV DEP', 'State','WV',3,1)</v>
       </c>
       <c r="I111" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4274,7 +4274,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('West Virginia Department of Health and Human Resources','WV DHHR','WV',3,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('West Virginia Department of Health and Human Resources','WV DHHR', 'State','WV',3,1)</v>
       </c>
       <c r="I112" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4300,7 +4300,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Wisconsin Department of Natural Resources','Wisconsin DNR','WI',5,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Wisconsin Department of Natural Resources','Wisconsin DNR', 'State','WI',5,1)</v>
       </c>
       <c r="I113" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4326,7 +4326,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Wyoming Department of Environmental Quality','Wyoming DEQ','WY',8,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Wyoming Department of Environmental Quality','Wyoming DEQ', 'State','WY',8,1)</v>
       </c>
       <c r="I114" s="4" t="str">
         <f t="shared" si="3"/>
@@ -4352,7 +4352,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [STATE_CD], [EPA_REGION], [ACT_IND]) values('Wyoming Department of Health','Wyoming DOH','WY',8,1)</v>
+        <v>insert into T_OE_ORGANIZATION ([ORG_NAME],[ORG_ABBR], [ORG_TYPE],[STATE_CD], [EPA_REGION], [ACT_IND]) values('Wyoming Department of Health','Wyoming DOH', 'State','WY',8,1)</v>
       </c>
       <c r="I115" s="4" t="str">
         <f t="shared" si="3"/>
